--- a/data/calc/new_bom.xlsx
+++ b/data/calc/new_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TITLE:</t>
   </si>
   <si>
-    <t>897</t>
+    <t>HAi</t>
   </si>
   <si>
     <t>PREPARED BY  :   V.ASHOK KUMAR</t>
@@ -34,7 +34,7 @@
     <t>PRODUCT:</t>
   </si>
   <si>
-    <t>987</t>
+    <t>AHU</t>
   </si>
   <si>
     <t>CHECKED BY    :    K.PREM KUMAR</t>
@@ -49,7 +49,7 @@
     <t>QTY:</t>
   </si>
   <si>
-    <t>DATE                  :    Mon Oct 19 2020 14:56:08 GMT+0530 (India Standard Time)</t>
+    <t>DATE                  :    Sun Nov 01 2020 13:34:43 GMT+0530 (India Standard Time)</t>
   </si>
   <si>
     <t>MODEL:</t>
@@ -85,13 +85,13 @@
     <t>AHU CASING</t>
   </si>
   <si>
-    <t>LCCR07523</t>
+    <t>LCCR07515</t>
   </si>
   <si>
     <t>Casing Inner Sheet</t>
   </si>
   <si>
-    <t>PRECOATED GI SHEET 1mm THK RAL 9002</t>
+    <t>GI sheet 0.6mm THK 275 GSM</t>
   </si>
   <si>
     <t/>
@@ -107,6 +107,27 @@
   </si>
   <si>
     <t>GI sheet 0.8mm THK 120 GSM</t>
+  </si>
+  <si>
+    <t>LAHC23705</t>
+  </si>
+  <si>
+    <t>Corner Profile</t>
+  </si>
+  <si>
+    <t>ALUMINUM CORNER PROFILE - 50-48 MM ROUNDED NTBK</t>
+  </si>
+  <si>
+    <t>Meters</t>
+  </si>
+  <si>
+    <t>LAHC23706</t>
+  </si>
+  <si>
+    <t>Omega Profile</t>
+  </si>
+  <si>
+    <t>ALUMINUM OMEGA PROFILE - 50-48 MM ROUNDED NTBK</t>
   </si>
 </sst>
 </file>
@@ -605,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D14" sqref="D14"/>
@@ -613,7 +634,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="15" customWidth="1"/>
+    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -678,7 +701,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
-        <v>987</v>
+        <v>8000</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -694,7 +717,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
-        <v>987</v>
+        <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>11</v>
@@ -710,7 +733,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
@@ -775,13 +798,13 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <v>16232952.970514521</v>
+        <v>13.795583999999996</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10">
-        <v>16021924581.897833</v>
+        <v>41.38675199999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,13 +824,65 @@
         <v>26</v>
       </c>
       <c r="F11">
-        <v>12986362.37641162</v>
+        <v>18.394111999999996</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11">
-        <v>12817539665.518269</v>
+        <v>55.18233599999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>9.719999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/calc/new_bom.xlsx
+++ b/data/calc/new_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TITLE:</t>
   </si>
   <si>
-    <t>HAi</t>
+    <t>Testing</t>
   </si>
   <si>
     <t>PREPARED BY  :   V.ASHOK KUMAR</t>
@@ -34,7 +34,7 @@
     <t>PRODUCT:</t>
   </si>
   <si>
-    <t>AHU</t>
+    <t>AHU-Horizontal</t>
   </si>
   <si>
     <t>CHECKED BY    :    K.PREM KUMAR</t>
@@ -49,12 +49,15 @@
     <t>QTY:</t>
   </si>
   <si>
-    <t>DATE                  :    Sun Nov 01 2020 13:34:43 GMT+0530 (India Standard Time)</t>
+    <t>DATE                  :    02-Nov-2020</t>
   </si>
   <si>
     <t>MODEL:</t>
   </si>
   <si>
+    <t>AHU-510</t>
+  </si>
+  <si>
     <t>REV NO             :   00</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>AHU CASING</t>
   </si>
   <si>
-    <t>LCCR07515</t>
+    <t>LCCR07502</t>
   </si>
   <si>
     <t>Casing Inner Sheet</t>
   </si>
   <si>
-    <t>GI sheet 0.6mm THK 275 GSM</t>
+    <t>GI sheet 0.8mm THK 120 GSM</t>
   </si>
   <si>
     <t/>
@@ -100,34 +103,67 @@
     <t>Kgs</t>
   </si>
   <si>
-    <t>LCCR07502</t>
-  </si>
-  <si>
     <t>Casing Outer Sheet</t>
   </si>
   <si>
-    <t>GI sheet 0.8mm THK 120 GSM</t>
-  </si>
-  <si>
-    <t>LAHC23705</t>
+    <t>LAHC23702</t>
   </si>
   <si>
     <t>Corner Profile</t>
   </si>
   <si>
-    <t>ALUMINUM CORNER PROFILE - 50-48 MM ROUNDED NTBK</t>
+    <t>ALUMINUM OMEGA PROFILE - 40-23 MM ROUNDED NTBK</t>
   </si>
   <si>
     <t>Meters</t>
   </si>
   <si>
-    <t>LAHC23706</t>
+    <t>LAHC23714</t>
   </si>
   <si>
     <t>Omega Profile</t>
   </si>
   <si>
-    <t>ALUMINUM OMEGA PROFILE - 50-48 MM ROUNDED NTBK</t>
+    <t>ALUMINUM CORNER PROFILE - 40 - 45 CHAMFERED TBK</t>
+  </si>
+  <si>
+    <t>LAHC15201</t>
+  </si>
+  <si>
+    <t>Corner Joiner</t>
+  </si>
+  <si>
+    <t>40mm NTBK Rounded - 3 Way Corner</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>LAHC15202</t>
+  </si>
+  <si>
+    <t>Omega Joiner</t>
+  </si>
+  <si>
+    <t>40mm NTBK Rounded - Omega Jointer</t>
+  </si>
+  <si>
+    <t>LAHN60001</t>
+  </si>
+  <si>
+    <t>Polyol</t>
+  </si>
+  <si>
+    <t>POLYOL</t>
+  </si>
+  <si>
+    <t>LAHN60006</t>
+  </si>
+  <si>
+    <t>Isol</t>
+  </si>
+  <si>
+    <t>ISOL</t>
   </si>
 </sst>
 </file>
@@ -626,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D14" sqref="D14"/>
@@ -701,7 +737,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -733,10 +769,10 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="7"/>
@@ -745,33 +781,33 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -786,25 +822,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>13.795583999999996</v>
+        <v>14.657808</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>41.38675199999999</v>
+        <v>43.973423999999994</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -812,25 +848,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>18.394111999999996</v>
+        <v>14.657808</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>55.18233599999999</v>
+        <v>43.973423999999994</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,25 +874,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12">
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
       <c r="H12">
-        <v>10.799999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,25 +900,129 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>2.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>8.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>3.2399999999999998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13">
-        <v>9.719999999999999</v>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>2.585088</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>7.7552639999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>1.7233920000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <v>5.1701760000000005</v>
       </c>
     </row>
   </sheetData>

--- a/data/calc/new_bom.xlsx
+++ b/data/calc/new_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -164,6 +164,27 @@
   </si>
   <si>
     <t>ISOL</t>
+  </si>
+  <si>
+    <t>LAHC24757</t>
+  </si>
+  <si>
+    <t>EPDM Panel Gasket</t>
+  </si>
+  <si>
+    <t>PE GASKETS 20MM x 3MM THK WITH ONE SIDE SELF ADHESIVE - 10m Rolls</t>
+  </si>
+  <si>
+    <t>LCCH30513</t>
+  </si>
+  <si>
+    <t>Panel fixing Screws</t>
+  </si>
+  <si>
+    <t>GI M4.2x19 TRUSS HEAD WITH PHILIPS RECESS SELF DRILLING SCREW</t>
+  </si>
+  <si>
+    <t>Blank off, Omega , drain tray fixing Screws</t>
   </si>
 </sst>
 </file>
@@ -662,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D14" sqref="D14"/>
@@ -1025,6 +1046,84 @@
         <v>5.1701760000000005</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>266.6666666666667</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>

--- a/data/calc/new_bom.xlsx
+++ b/data/calc/new_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TITLE:</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Takisha</t>
   </si>
   <si>
     <t>PREPARED BY  :   V.ASHOK KUMAR</t>
@@ -34,7 +34,7 @@
     <t>PRODUCT:</t>
   </si>
   <si>
-    <t>AHU-Horizontal</t>
+    <t>CSU</t>
   </si>
   <si>
     <t>CHECKED BY    :    K.PREM KUMAR</t>
@@ -49,13 +49,13 @@
     <t>QTY:</t>
   </si>
   <si>
-    <t>DATE                  :    02-Nov-2020</t>
+    <t>DATE                  :    03-Nov-2020</t>
   </si>
   <si>
     <t>MODEL:</t>
   </si>
   <si>
-    <t>AHU-510</t>
+    <t>AHU</t>
   </si>
   <si>
     <t>REV NO             :   00</t>
@@ -88,64 +88,82 @@
     <t>AHU CASING</t>
   </si>
   <si>
+    <t>LCCR07501</t>
+  </si>
+  <si>
+    <t>Casing Inner Sheet</t>
+  </si>
+  <si>
+    <t>GI sheet 0.6mm THK 120 GSM</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>28.02</t>
+  </si>
+  <si>
+    <t>Kgs</t>
+  </si>
+  <si>
     <t>LCCR07502</t>
   </si>
   <si>
-    <t>Casing Inner Sheet</t>
+    <t>Casing Outer Sheet</t>
   </si>
   <si>
     <t>GI sheet 0.8mm THK 120 GSM</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Kgs</t>
-  </si>
-  <si>
-    <t>Casing Outer Sheet</t>
-  </si>
-  <si>
-    <t>LAHC23702</t>
+    <t>37.36</t>
+  </si>
+  <si>
+    <t>LAHC23705</t>
   </si>
   <si>
     <t>Corner Profile</t>
   </si>
   <si>
-    <t>ALUMINUM OMEGA PROFILE - 40-23 MM ROUNDED NTBK</t>
+    <t>ALUMINUM CORNER PROFILE - 50-48 MM ROUNDED NTBK</t>
+  </si>
+  <si>
+    <t>7.20</t>
   </si>
   <si>
     <t>Meters</t>
   </si>
   <si>
-    <t>LAHC23714</t>
+    <t>LAHC23706</t>
   </si>
   <si>
     <t>Omega Profile</t>
   </si>
   <si>
-    <t>ALUMINUM CORNER PROFILE - 40 - 45 CHAMFERED TBK</t>
-  </si>
-  <si>
-    <t>LAHC15201</t>
+    <t>ALUMINUM OMEGA PROFILE - 50-48 MM ROUNDED NTBK</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>LAHC15210</t>
   </si>
   <si>
     <t>Corner Joiner</t>
   </si>
   <si>
-    <t>40mm NTBK Rounded - 3 Way Corner</t>
+    <t>50mm TBK - Omega Jointer</t>
   </si>
   <si>
     <t>Nos</t>
   </si>
   <si>
-    <t>LAHC15202</t>
+    <t>LAHC15209</t>
   </si>
   <si>
     <t>Omega Joiner</t>
   </si>
   <si>
-    <t>40mm NTBK Rounded - Omega Jointer</t>
+    <t>50mm TBK - 3 Way Corner</t>
   </si>
   <si>
     <t>LAHN60001</t>
@@ -157,6 +175,9 @@
     <t>POLYOL</t>
   </si>
   <si>
+    <t>6.59</t>
+  </si>
+  <si>
     <t>LAHN60006</t>
   </si>
   <si>
@@ -166,6 +187,9 @@
     <t>ISOL</t>
   </si>
   <si>
+    <t>4.39</t>
+  </si>
+  <si>
     <t>LAHC24757</t>
   </si>
   <si>
@@ -185,6 +209,144 @@
   </si>
   <si>
     <t>Blank off, Omega , drain tray fixing Screws</t>
+  </si>
+  <si>
+    <t>Supply Fan</t>
+  </si>
+  <si>
+    <t>LAHC11038</t>
+  </si>
+  <si>
+    <t>Blower</t>
+  </si>
+  <si>
+    <t>KAT 8/8 S2-CCW 90 KRUGER MAKE</t>
+  </si>
+  <si>
+    <t>LCCE26782</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>SIEMENS 0.37 KW 3 PH TEFC-SQCAGE INDUCTION MOTOR 4 POLE FOOT MOUNTED-IE3</t>
+  </si>
+  <si>
+    <t>LAHC15503</t>
+  </si>
+  <si>
+    <t>Anti Vibrant</t>
+  </si>
+  <si>
+    <t>25MM RUBBER ANTI VIBRANT</t>
+  </si>
+  <si>
+    <t>LCCC13302</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>BELT A-20</t>
+  </si>
+  <si>
+    <t>LCCC12704</t>
+  </si>
+  <si>
+    <t>Fan Pulley</t>
+  </si>
+  <si>
+    <t>95x 2A</t>
+  </si>
+  <si>
+    <t>LCCC12703</t>
+  </si>
+  <si>
+    <t>Motor Pulley</t>
+  </si>
+  <si>
+    <t>90x 2A</t>
+  </si>
+  <si>
+    <t>1 - LAHS00001 - WATER COOLING COIL ( Code : 250H X 250L X 6 R X 12 FPI X 12.7 x 0.36 DIA X 2 C )</t>
+  </si>
+  <si>
+    <t>LAHC23904</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>ALUMINIUM FIN STOCK - 0.12mm Thick - 274mm Width for 3/8 (PLAIN)</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>LAHR06251</t>
+  </si>
+  <si>
+    <t>Copper Tube</t>
+  </si>
+  <si>
+    <t>12.7mm OD with 0.36 mm Wall Thickness Plain Tube Seamless LWC Copper</t>
+  </si>
+  <si>
+    <t>LCCR07512</t>
+  </si>
+  <si>
+    <t>End Plate &amp; Side Plates</t>
+  </si>
+  <si>
+    <t>GI sheet 1.6mm THK 180 GSM</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>LAHR06504</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>2 1/2 inch Seamless MS Pipe</t>
+  </si>
+  <si>
+    <t>LAHR17216</t>
+  </si>
+  <si>
+    <t>"U" Bend</t>
+  </si>
+  <si>
+    <t>1/2 Inch Copper U Bend 0.5mm Thick</t>
+  </si>
+  <si>
+    <t>LAHR06252</t>
+  </si>
+  <si>
+    <t>Copper Straight Stub</t>
+  </si>
+  <si>
+    <t>12.7mm OD with 0.5 mm Wall Thickness Plain Tube Seamless LWC Copper</t>
+  </si>
+  <si>
+    <t>238.14</t>
+  </si>
+  <si>
+    <t>LCCC14930</t>
+  </si>
+  <si>
+    <t>Drain Plug</t>
+  </si>
+  <si>
+    <t>DRAIN PLUG</t>
+  </si>
+  <si>
+    <t>LAHR05262</t>
+  </si>
+  <si>
+    <t>Purge Nipple</t>
   </si>
 </sst>
 </file>
@@ -225,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,6 +396,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -353,11 +522,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,7 +534,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,8 +546,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -388,8 +555,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,7 +567,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D14" sqref="D14"/>
@@ -691,155 +861,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="1" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
     <col min="5" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -854,106 +1025,106 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10">
-        <v>14.657808</v>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>43.973423999999994</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>14.657808</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
       <c r="H11">
-        <v>43.973423999999994</v>
+        <v>74.72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13">
-        <v>2.7</v>
+      <c r="F13" t="s">
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>8.100000000000001</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -962,24 +1133,24 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -988,76 +1159,76 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H15">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
-        <v>2.585088</v>
+      <c r="F16" t="s">
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>7.7552639999999995</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17">
-        <v>1.7233920000000003</v>
+      <c r="F17" t="s">
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>5.1701760000000005</v>
+        <v>8.78</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -1066,24 +1237,24 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1092,24 +1263,24 @@
         <v>266.6666666666667</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>800</v>
+        <v>533.3333333333334</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -1118,18 +1289,408 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>300</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <v>69.72479999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>69.72479999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <v>476.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="F3:H7"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/calc/new_bom.xlsx
+++ b/data/calc/new_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -25,7 +25,7 @@
     <t>TITLE:</t>
   </si>
   <si>
-    <t>Takisha</t>
+    <t>Test</t>
   </si>
   <si>
     <t>PREPARED BY  :   V.ASHOK KUMAR</t>
@@ -34,7 +34,7 @@
     <t>PRODUCT:</t>
   </si>
   <si>
-    <t>CSU</t>
+    <t>555</t>
   </si>
   <si>
     <t>CHECKED BY    :    K.PREM KUMAR</t>
@@ -55,7 +55,7 @@
     <t>MODEL:</t>
   </si>
   <si>
-    <t>AHU</t>
+    <t>AHU-1</t>
   </si>
   <si>
     <t>REV NO             :   00</t>
@@ -88,82 +88,73 @@
     <t>AHU CASING</t>
   </si>
   <si>
-    <t>LCCR07501</t>
+    <t>LCCR07502</t>
   </si>
   <si>
     <t>Casing Inner Sheet</t>
   </si>
   <si>
-    <t>GI sheet 0.6mm THK 120 GSM</t>
+    <t>GI sheet 0.8mm THK 120 GSM</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>28.02</t>
+    <t>22.27</t>
   </si>
   <si>
     <t>Kgs</t>
   </si>
   <si>
-    <t>LCCR07502</t>
-  </si>
-  <si>
     <t>Casing Outer Sheet</t>
   </si>
   <si>
-    <t>GI sheet 0.8mm THK 120 GSM</t>
-  </si>
-  <si>
-    <t>37.36</t>
-  </si>
-  <si>
-    <t>LAHC23705</t>
+    <t>LAHC23702</t>
   </si>
   <si>
     <t>Corner Profile</t>
   </si>
   <si>
-    <t>ALUMINUM CORNER PROFILE - 50-48 MM ROUNDED NTBK</t>
-  </si>
-  <si>
-    <t>7.20</t>
+    <t>ALUMINUM OMEGA PROFILE - 40-23 MM ROUNDED NTBK</t>
+  </si>
+  <si>
+    <t>4.40</t>
   </si>
   <si>
     <t>Meters</t>
   </si>
   <si>
-    <t>LAHC23706</t>
+    <t>LAHC23714</t>
   </si>
   <si>
     <t>Omega Profile</t>
   </si>
   <si>
-    <t>ALUMINUM OMEGA PROFILE - 50-48 MM ROUNDED NTBK</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>LAHC15210</t>
+    <t>ALUMINUM CORNER PROFILE - 40 - 45 CHAMFERED TBK</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>LAHC15201</t>
   </si>
   <si>
     <t>Corner Joiner</t>
   </si>
   <si>
-    <t>50mm TBK - Omega Jointer</t>
+    <t>40mm NTBK Rounded - 3 Way Corner</t>
   </si>
   <si>
     <t>Nos</t>
   </si>
   <si>
-    <t>LAHC15209</t>
+    <t>LAHC15202</t>
   </si>
   <si>
     <t>Omega Joiner</t>
   </si>
   <si>
-    <t>50mm TBK - 3 Way Corner</t>
+    <t>40mm NTBK Rounded - Omega Jointer</t>
   </si>
   <si>
     <t>LAHN60001</t>
@@ -175,7 +166,7 @@
     <t>POLYOL</t>
   </si>
   <si>
-    <t>6.59</t>
+    <t>3.93</t>
   </si>
   <si>
     <t>LAHN60006</t>
@@ -187,7 +178,7 @@
     <t>ISOL</t>
   </si>
   <si>
-    <t>4.39</t>
+    <t>2.62</t>
   </si>
   <si>
     <t>LAHC24757</t>
@@ -214,73 +205,67 @@
     <t>Supply Fan</t>
   </si>
   <si>
-    <t>LAHC11038</t>
+    <t>LAHC11001</t>
   </si>
   <si>
     <t>Blower</t>
   </si>
   <si>
-    <t>KAT 8/8 S2-CCW 90 KRUGER MAKE</t>
-  </si>
-  <si>
-    <t>LCCE26782</t>
+    <t>KAT 7/7 S KRUGER MAKE</t>
+  </si>
+  <si>
+    <t>LCCE26703</t>
   </si>
   <si>
     <t>Motor</t>
   </si>
   <si>
-    <t>SIEMENS 0.37 KW 3 PH TEFC-SQCAGE INDUCTION MOTOR 4 POLE FOOT MOUNTED-IE3</t>
-  </si>
-  <si>
-    <t>LAHC15503</t>
+    <t>SIEMENS 0.55 KW 3 PH TEFC-SQCAGE INDUCTION MOTOR 2 POLE FOOT MOUNTED-IE1</t>
+  </si>
+  <si>
+    <t>LAHC15502</t>
   </si>
   <si>
     <t>Anti Vibrant</t>
   </si>
   <si>
-    <t>25MM RUBBER ANTI VIBRANT</t>
-  </si>
-  <si>
-    <t>LCCC13302</t>
+    <t>35MM RUBBER ANTI VIBRANT</t>
+  </si>
+  <si>
+    <t>LCCC13301</t>
   </si>
   <si>
     <t>Belt</t>
   </si>
   <si>
-    <t>BELT A-20</t>
-  </si>
-  <si>
-    <t>LCCC12704</t>
+    <t>BELT A-19</t>
+  </si>
+  <si>
+    <t>LCCC12702</t>
   </si>
   <si>
     <t>Fan Pulley</t>
   </si>
   <si>
-    <t>95x 2A</t>
-  </si>
-  <si>
-    <t>LCCC12703</t>
+    <t>85x 2A</t>
   </si>
   <si>
     <t>Motor Pulley</t>
   </si>
   <si>
-    <t>90x 2A</t>
-  </si>
-  <si>
-    <t>1 - LAHS00001 - WATER COOLING COIL ( Code : 250H X 250L X 6 R X 12 FPI X 12.7 x 0.36 DIA X 2 C )</t>
-  </si>
-  <si>
-    <t>LAHC23904</t>
+    <t>1 - LAHS00001 - WATER COOLING COIL ( Code : 1500H X 1500L X 6 R X 12 FPI X 12.7 x 0.36 DIA X 1 C )</t>
+  </si>
+  <si>
+    <t>LAHC23903</t>
   </si>
   <si>
     <t>Fin</t>
   </si>
   <si>
-    <t>ALUMINIUM FIN STOCK - 0.12mm Thick - 274mm Width for 3/8 (PLAIN)</t>
-  </si>
-  <si>
-    <t>3.34</t>
+    <t>ALUMINIUM FIN STOCK - 0.12mm Plain - 230mm Width</t>
+  </si>
+  <si>
+    <t>43.58</t>
   </si>
   <si>
     <t>LAHR06251</t>
@@ -301,7 +286,7 @@
     <t>GI sheet 1.6mm THK 180 GSM</t>
   </si>
   <si>
-    <t>5.71</t>
+    <t>20.12</t>
   </si>
   <si>
     <t>LAHR06504</t>
@@ -331,7 +316,7 @@
     <t>12.7mm OD with 0.5 mm Wall Thickness Plain Tube Seamless LWC Copper</t>
   </si>
   <si>
-    <t>238.14</t>
+    <t>1428.75</t>
   </si>
   <si>
     <t>LCCC14930</t>
@@ -1032,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="H10">
-        <v>56.04</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,25 +1025,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11">
-        <v>74.72</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,25 +1051,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
       <c r="H12">
-        <v>14.4</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,25 +1077,25 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>12.96</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1133,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>16</v>
@@ -1144,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
@@ -1159,7 +1144,7 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>88</v>
@@ -1170,25 +1155,25 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
       </c>
       <c r="H16">
-        <v>13.18</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,25 +1181,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
       <c r="H17">
-        <v>8.78</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,13 +1207,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>27</v>
@@ -1237,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1248,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1263,7 +1248,7 @@
         <v>266.6666666666667</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>533.3333333333334</v>
@@ -1274,13 +1259,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>27</v>
@@ -1289,7 +1274,7 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1297,7 +1282,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1312,25 +1297,25 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22">
         <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,25 +1323,25 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
         <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,13 +1349,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -1379,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -1390,13 +1375,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
         <v>27</v>
@@ -1405,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1416,13 +1401,13 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>
@@ -1431,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1442,13 +1427,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1457,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1465,7 +1450,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1480,22 +1465,22 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H29">
         <v>69.72479999999999</v>
@@ -1506,19 +1491,19 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -1532,25 +1517,25 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
       </c>
       <c r="H31">
-        <v>11.42</v>
+        <v>40.24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1558,25 +1543,25 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,25 +1569,25 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
       </c>
       <c r="F33">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>78</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,25 +1595,25 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
         <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
       </c>
       <c r="H34">
-        <v>476.28</v>
+        <v>2857.5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,13 +1621,13 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -1651,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1662,25 +1647,25 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>27</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36">
         <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
